--- a/التقييم.xlsx
+++ b/التقييم.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EGYPT_LAPTOP\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EGYPT_LAPTOP\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -80,7 +80,7 @@
     <t>ناصر جمال توفيق</t>
   </si>
   <si>
-    <t>التقييم من 5</t>
+    <t>التقييم من 10</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.8" x14ac:dyDescent="0.55000000000000004"/>
@@ -489,7 +489,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3">
         <v>2220002</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3">
         <v>2220003</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3">
         <v>2220122</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3">
         <v>2220126</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3">
         <v>2220132</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3">
         <v>2220173</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3">
         <v>2220153</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="B9" s="3">
         <v>2220310</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="3">
         <v>2220344</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="B11" s="3">
         <v>2220351</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="B12" s="3">
         <v>2220365</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3">
         <v>2220496</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3">
         <v>2220498</v>
